--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P30_trail7 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P30_trail7 Features.xlsx
@@ -3215,7 +3215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3226,29 +3226,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="21" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3269,115 +3267,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3394,72 +3382,66 @@
         <v>8.725752963387726e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.6336854492824338</v>
+        <v>3.043452965505147e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.9555678438439363</v>
+        <v>9.550972758118033e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.043452965505147e-07</v>
+        <v>0.05802177309845043</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>9.550972758118033e-07</v>
+        <v>0.07717195689980104</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.05802177309845043</v>
+        <v>0.009321619734469998</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.07717195689980104</v>
+        <v>1.440085251605325</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.009321619734469998</v>
+        <v>1.378708239755802</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.358495972470001</v>
+        <v>3.518476884772449</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.378708239755802</v>
+        <v>1.861475223251378e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.518476884772449</v>
+        <v>45158888.33358779</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.861475223251378e-15</v>
+        <v>2.076376731739746e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>45158888.33358779</v>
+        <v>3.7961533236229</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.076376731739746e-06</v>
+        <v>0.0001785638833172845</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>3.7961533236229</v>
+        <v>10.45315847501461</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001785638833172845</v>
+        <v>1.223353942776131</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.45315847501461</v>
+        <v>0.01951141163118966</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.223353942776131</v>
+        <v>2.700245373546268</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01951141163118966</v>
+        <v>0.9337682267621624</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.700245373546268</v>
+        <v>1.919828378964494</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9337682267621624</v>
+        <v>15</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.919828378964494</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1416093565955005</v>
       </c>
     </row>
@@ -3474,72 +3456,66 @@
         <v>8.845828632803679e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.6110561510759854</v>
+        <v>2.946999115075157e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.045393262599207</v>
+        <v>9.600620996106298e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.946999115075157e-07</v>
+        <v>0.05498625572109424</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>9.600620996106298e-07</v>
+        <v>0.07655325070106096</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.05498625572109424</v>
+        <v>0.008883451974703116</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.07655325070106096</v>
+        <v>1.53579958830913</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.008883451974703116</v>
+        <v>1.432004838411633</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.445447363942579</v>
+        <v>3.407833174546692</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.432004838411633</v>
+        <v>1.736672385316075e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.407833174546692</v>
+        <v>44438532.10449187</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.736672385316075e-15</v>
+        <v>2.320369795719422e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>44438532.10449187</v>
+        <v>3.429551338587804</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.320369795719422e-06</v>
+        <v>0.0001526871499924156</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>3.429551338587804</v>
+        <v>10.31299012748521</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001526871499924156</v>
+        <v>1.100639290248016</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.31299012748521</v>
+        <v>0.0162394640738474</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.100639290248016</v>
+        <v>2.681182238287736</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.0162394640738474</v>
+        <v>0.9444025127184349</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.681182238287736</v>
+        <v>1.839976034630413</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9444025127184349</v>
+        <v>14</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.839976034630413</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1623681624394598</v>
       </c>
     </row>
@@ -3554,72 +3530,66 @@
         <v>8.951456625045185e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.5749685251537062</v>
+        <v>2.848000797813846e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.138473765337507</v>
+        <v>9.648174370684611e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.848000797813846e-07</v>
+        <v>0.0518422864706531</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>9.648174370684611e-07</v>
+        <v>0.07622217484804705</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.0518422864706531</v>
+        <v>0.008496771528564363</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.07622217484804705</v>
+        <v>1.561547176653036</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.008496771528564363</v>
+        <v>1.385236449618508</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.470783426406531</v>
+        <v>3.665757548017145</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.385236449618508</v>
+        <v>1.50088382218748e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.665757548017145</v>
+        <v>50211221.95015992</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.50088382218748e-15</v>
+        <v>2.082798600164361e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>50211221.95015992</v>
+        <v>3.78397847775711</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.082798600164361e-06</v>
+        <v>0.0001450003783808693</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>3.78397847775711</v>
+        <v>9.687107559472837</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001450003783808693</v>
+        <v>1.130752179800937</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.687107559472837</v>
+        <v>0.01360684317325616</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.130752179800937</v>
+        <v>2.692398566885601</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01360684317325616</v>
+        <v>0.9460434078729403</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.692398566885601</v>
+        <v>1.854356765714034</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9460434078729403</v>
+        <v>14</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.854356765714034</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1721595777072711</v>
       </c>
     </row>
@@ -3634,72 +3604,66 @@
         <v>9.043773800814469e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.5275197845332646</v>
+        <v>2.734569094489486e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.229048774107754</v>
+        <v>9.69330808533308e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.734569094489486e-07</v>
+        <v>0.04842144325341034</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>9.69330808533308e-07</v>
+        <v>0.07587173185397869</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.04842144325341034</v>
+        <v>0.008100086475529565</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.07587173185397869</v>
+        <v>1.563403425247301</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.008100086475529565</v>
+        <v>1.397795678263212</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.476833483656172</v>
+        <v>4.079252701209703</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.397795678263212</v>
+        <v>1.212029894671037e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.079252701209703</v>
+        <v>58375220.73907363</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.212029894671037e-15</v>
+        <v>1.776553578372239e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>58375220.73907363</v>
+        <v>4.130193543424635</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.776553578372239e-06</v>
+        <v>0.0001393595737013386</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>4.130193543424635</v>
+        <v>8.441276610281665</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001393595737013386</v>
+        <v>1.23015229640354</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.441276610281665</v>
+        <v>0.009930087441085733</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.23015229640354</v>
+        <v>2.902714855430948</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.009930087441085733</v>
+        <v>0.9469788325162825</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.902714855430948</v>
+        <v>1.884275221076476</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9469788325162825</v>
+        <v>14</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.884275221076476</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.167734813969808</v>
       </c>
     </row>
@@ -3714,72 +3678,66 @@
         <v>9.126800355433057e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.4705607494788794</v>
+        <v>2.603598894014993e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.312540509424164</v>
+        <v>9.735623634172675e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.603598894014993e-07</v>
+        <v>0.04468041955903845</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>9.735623634172675e-07</v>
+        <v>0.07526406006325476</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.04468041955903845</v>
+        <v>0.007659598217493069</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.07526406006325476</v>
+        <v>1.593201705337466</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.007659598217493069</v>
+        <v>1.481959202258048</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.507699753978236</v>
+        <v>4.350623179660055</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.481959202258048</v>
+        <v>1.065544551229874e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.350623179660055</v>
+        <v>66223211.13589972</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.065544551229874e-15</v>
+        <v>1.583783926116103e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>66223211.13589972</v>
+        <v>4.672960220079934</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.583783926116103e-06</v>
+        <v>0.0001512368591916065</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>4.672960220079934</v>
+        <v>7.711676313939266</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001512368591916065</v>
+        <v>1.672267864675514</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.711676313939266</v>
+        <v>0.008994048691870737</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.672267864675514</v>
+        <v>3.00393572414844</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.008994048691870737</v>
+        <v>0.9492425013849212</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.00393572414844</v>
+        <v>1.868565839408843</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9492425013849212</v>
+        <v>14</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.868565839408843</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1558854965606322</v>
       </c>
     </row>
@@ -3794,72 +3752,66 @@
         <v>9.202692484259956e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.4067192422526825</v>
+        <v>2.585502531434802e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.386516419104045</v>
+        <v>9.774831074743827e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.585502531434802e-07</v>
+        <v>0.0409551433252926</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>9.774831074743827e-07</v>
+        <v>0.07477928983445795</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.0409551433252926</v>
+        <v>0.007268260951321825</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.07477928983445795</v>
+        <v>1.595631451768358</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.007268260951321825</v>
+        <v>1.531434994712426</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.515754256770685</v>
+        <v>4.423218761252431</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.531434994712426</v>
+        <v>1.03085531244154e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.423218761252431</v>
+        <v>68040231.13106942</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.03085531244154e-15</v>
+        <v>1.539138620069389e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>68040231.13106942</v>
+        <v>4.772316889839893</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.539138620069389e-06</v>
+        <v>0.0001512891027841426</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>4.772316889839893</v>
+        <v>8.327785238452678</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001512891027841426</v>
+        <v>1.45112510863984</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.327785238452678</v>
+        <v>0.01049220291194949</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.45112510863984</v>
+        <v>2.954318318535102</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01049220291194949</v>
+        <v>0.9493975278273991</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.954318318535102</v>
+        <v>1.841145699584607</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9493975278273991</v>
+        <v>14</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.841145699584607</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.156903426772297</v>
       </c>
     </row>
@@ -3874,72 +3826,66 @@
         <v>9.267959366103063e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.3395355918216951</v>
+        <v>2.585502531434802e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.449613029825217</v>
+        <v>9.811240777974116e-07</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.585502531434802e-07</v>
+        <v>0.03806065134475785</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>9.811240777974116e-07</v>
+        <v>0.07510690518276644</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.03806065134475785</v>
+        <v>0.007089331587915633</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.07510690518276644</v>
+        <v>1.601311504952398</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.007089331587915633</v>
+        <v>1.525968635758609</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.526406163843955</v>
+        <v>4.438109327623006</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.525968635758609</v>
+        <v>1.023949548102538e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.438109327623006</v>
+        <v>69075841.20858324</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.023949548102538e-15</v>
+        <v>1.5251474439381e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>69075841.20858324</v>
+        <v>4.885746432993619</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.5251474439381e-06</v>
+        <v>0.0001455968307648126</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>4.885746432993619</v>
+        <v>9.555976296082164</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001455968307648126</v>
+        <v>1.176502786653749</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.555976296082164</v>
+        <v>0.01329541963657411</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.176502786653749</v>
+        <v>2.752925396957301</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01329541963657411</v>
+        <v>0.9496526863131419</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.752925396957301</v>
+        <v>1.868556997792401</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9496526863131419</v>
+        <v>18</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.868556997792401</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1718019301897</v>
       </c>
     </row>
@@ -3954,72 +3900,66 @@
         <v>9.315949707419818e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.2715995291480425</v>
+        <v>2.585502531434802e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.5004464640761</v>
+        <v>9.845674846419439e-07</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.585502531434802e-07</v>
+        <v>0.03616645800449636</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>9.845674846419439e-07</v>
+        <v>0.07584970846314849</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.03616645800449636</v>
+        <v>0.007061068162373638</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.07584970846314849</v>
+        <v>1.611621274169767</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.007061068162373638</v>
+        <v>1.49245652029758</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.534811149642467</v>
+        <v>4.437526460236851</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.49245652029758</v>
+        <v>1.024218556523553e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.437526460236851</v>
+        <v>70474771.93778245</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.024218556523553e-15</v>
+        <v>1.512829912743201e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>70474771.93778245</v>
+        <v>5.0869796264553</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.512829912743201e-06</v>
+        <v>0.0001425671248038437</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>5.0869796264553</v>
+        <v>9.290653813842345</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001425671248038437</v>
+        <v>1.191045157137729</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.290653813842345</v>
+        <v>0.01230585934236942</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.191045157137729</v>
+        <v>2.727693968758589</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01230585934236942</v>
+        <v>0.9503038345158075</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.727693968758589</v>
+        <v>1.873577977578516</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9503038345158075</v>
+        <v>56</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.873577977578516</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1781492503570439</v>
       </c>
     </row>
@@ -4034,72 +3974,66 @@
         <v>9.342500081143934e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.204024775382201</v>
+        <v>2.585502531434802e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.538062855742298</v>
+        <v>9.878801472742849e-07</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2.585502531434802e-07</v>
+        <v>0.03489484762282145</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>9.878801472742849e-07</v>
+        <v>0.07662578928186553</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.03489484762282145</v>
+        <v>0.007089045613482387</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.07662578928186553</v>
+        <v>1.615716559024597</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.007089045613482387</v>
+        <v>1.456964492599992</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.541173916671595</v>
+        <v>4.459045793138661</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.456964492599992</v>
+        <v>1.014356663450472e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.459045793138661</v>
+        <v>71123418.75907092</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.014356663450472e-15</v>
+        <v>1.498315894971633e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>71123418.75907092</v>
+        <v>5.131164462300837</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.498315894971633e-06</v>
+        <v>0.0001348629811955512</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>5.131164462300837</v>
+        <v>8.203990980795998</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001348629811955512</v>
+        <v>1.228699499276453</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.203990980795998</v>
+        <v>0.009077016066992575</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.228699499276453</v>
+        <v>2.898868373884275</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.009077016066992575</v>
+        <v>0.9509688921553354</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.898868373884275</v>
+        <v>1.861316014515083</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9509688921553354</v>
+        <v>81</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.861316014515083</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1787897581273067</v>
       </c>
     </row>
@@ -4114,72 +4048,66 @@
         <v>9.345988296414298e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.1372919476377925</v>
+        <v>2.585502531434802e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.562114636445814</v>
+        <v>9.91096963781213e-07</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2.585502531434802e-07</v>
+        <v>0.03396533701940964</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>9.91096963781213e-07</v>
+        <v>0.07746440161050612</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.03396533701940964</v>
+        <v>0.007154213805679823</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.07746440161050612</v>
+        <v>1.625071773226308</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.007154213805679823</v>
+        <v>1.427381022859621</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.552272313699011</v>
+        <v>4.558100209059297</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.427381022859621</v>
+        <v>9.707486912708329e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.558100209059297</v>
+        <v>74482282.39205568</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>9.707486912708329e-16</v>
+        <v>1.435500520879467e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>74482282.39205568</v>
+        <v>5.385335526093251</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.435500520879467e-06</v>
+        <v>0.0001313174936235543</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>5.385335526093251</v>
+        <v>7.225079973402806</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001313174936235543</v>
+        <v>1.402674794767187</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.225079973402806</v>
+        <v>0.006855006993976373</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.402674794767187</v>
+        <v>3.04194932586533</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.006855006993976373</v>
+        <v>0.9510866600275113</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.04194932586533</v>
+        <v>1.840315394594428</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9510866600275113</v>
+        <v>81</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.840315394594428</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.177669306076928</v>
       </c>
     </row>
@@ -4194,72 +4122,66 @@
         <v>9.32560414368709e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.07174989337159141</v>
+        <v>2.585502531434802e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.572556983191473</v>
+        <v>9.942348430033384e-07</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2.585502531434802e-07</v>
+        <v>0.03325458822186384</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>9.942348430033384e-07</v>
+        <v>0.07841789138313954</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.03325458822186384</v>
+        <v>0.007255043711907431</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.07841789138313954</v>
+        <v>1.630736037132834</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.007255043711907431</v>
+        <v>1.392937335990464</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.558672589360752</v>
+        <v>4.82581962179587</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.392937335990464</v>
+        <v>8.660288931364803e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.82581962179587</v>
+        <v>82349826.94620268</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>8.660288931364803e-16</v>
+        <v>1.297074381321409e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>82349826.94620268</v>
+        <v>5.87296974095984</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.297074381321409e-06</v>
+        <v>0.0001345401039194064</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>5.87296974095984</v>
+        <v>7.305086688451113</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001345401039194064</v>
+        <v>1.58583837935472</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>7.305086688451113</v>
+        <v>0.007179637327464702</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.58583837935472</v>
+        <v>3.096051211169601</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.007179637327464702</v>
+        <v>0.9510753477921322</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.096051211169601</v>
+        <v>1.861081165890015</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9510753477921322</v>
+        <v>90</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.861081165890015</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1815777988362975</v>
       </c>
     </row>
@@ -4274,72 +4196,66 @@
         <v>9.281432294227794e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.007718281729724824</v>
+        <v>2.585502531434802e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.569656915394453</v>
+        <v>9.973044086151999e-07</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2.585502531434802e-07</v>
+        <v>0.03272711018787404</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>9.973044086151999e-07</v>
+        <v>0.07947447483672303</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.03272711018787404</v>
+        <v>0.007387079691448168</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.07947447483672303</v>
+        <v>1.634201724206944</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.007387079691448168</v>
+        <v>1.367608121687189</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.56497420457099</v>
+        <v>5.531755253494515</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.367608121687189</v>
+        <v>6.590959415687939e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>5.531755253494515</v>
+        <v>107281856.4831886</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>6.590959415687939e-16</v>
+        <v>9.931387354039611e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>107281856.4831886</v>
+        <v>7.585796674964174</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>9.931387354039611e-07</v>
+        <v>0.0001488727115704994</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>7.585796674964174</v>
+        <v>10.9084697496283</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001488727115704994</v>
+        <v>1.121215637423399</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>10.9084697496283</v>
+        <v>0.01771506547945998</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.121215637423399</v>
+        <v>2.828667618939163</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01771506547945998</v>
+        <v>0.9499325578407636</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.828667618939163</v>
+        <v>1.850694936626016</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9499325578407636</v>
+        <v>90</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.850694936626016</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2084885038252104</v>
       </c>
     </row>
@@ -4354,72 +4270,66 @@
         <v>9.21430963888565e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.05454009786702634</v>
+        <v>2.585502531434802e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.55399083733789</v>
+        <v>1.000315072647858e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.585502531434802e-07</v>
+        <v>0.03238140348821598</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.000315072647858e-06</v>
+        <v>0.08061497146139991</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.03238140348821598</v>
+        <v>0.00754719157323255</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.08061497146139991</v>
+        <v>1.686998704237378</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.00754719157323255</v>
+        <v>1.511624377465072</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.633017032537092</v>
+        <v>4.173786359188963</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.511624377465072</v>
+        <v>5.186057750533718e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.173786359188963</v>
+        <v>125987688.6793055</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>5.186057750533718e-16</v>
+        <v>8.651862786297391e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>125987688.6793055</v>
+        <v>8.231776413404999</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>8.651862786297391e-07</v>
+        <v>0.0002242534548025984</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>8.231776413404999</v>
+        <v>12.76657473937948</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0002242534548025984</v>
+        <v>1.178314322141388</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>12.76657473937948</v>
+        <v>0.03655004588919346</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.178314322141388</v>
+        <v>2.599373900189322</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.03655004588919346</v>
+        <v>0.9517582973062146</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.599373900189322</v>
+        <v>1.849693441502475</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9517582973062146</v>
+        <v>87</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.849693441502475</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>87</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.221742669828618</v>
       </c>
     </row>
@@ -4434,72 +4344,66 @@
         <v>9.125276611848378e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.1148177781375448</v>
+        <v>2.585502531434802e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.526353448097268</v>
+        <v>1.003277772803202e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2.585502531434802e-07</v>
+        <v>0.03224230606132068</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.003277772803202e-06</v>
+        <v>0.08181394522861445</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.03224230606132068</v>
+        <v>0.007733009125861477</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.08181394522861445</v>
+        <v>1.786193691461672</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.007733009125861477</v>
+        <v>1.451176700295713</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.752845043612761</v>
+        <v>4.942976926613932</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.451176700295713</v>
+        <v>3.934298075176394e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.942976926613932</v>
+        <v>153311621.7714724</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>3.934298075176394e-16</v>
+        <v>7.56548589667122e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>153311621.7714724</v>
+        <v>9.247352565244721</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>7.56548589667122e-07</v>
+        <v>0.0003240689203395964</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>9.247352565244721</v>
+        <v>11.32991207940325</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0003240689203395964</v>
+        <v>1.679467642279337</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>11.32991207940325</v>
+        <v>0.04159972519442399</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.679467642279337</v>
+        <v>2.60429066976686</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.04159972519442399</v>
+        <v>0.9544592646104106</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.60429066976686</v>
+        <v>1.70520647768043</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9544592646104106</v>
+        <v>87</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.70520647768043</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>87</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.3458699576910055</v>
       </c>
     </row>
@@ -4514,72 +4418,66 @@
         <v>9.015429461612848e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.1729775225563248</v>
+        <v>2.585502531434802e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.487714846615388</v>
+        <v>1.006205900317156e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2.585502531434802e-07</v>
+        <v>0.03233296445641348</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.006205900317156e-06</v>
+        <v>0.08306104272920097</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.03233296445641348</v>
+        <v>0.007944555415973891</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.08306104272920097</v>
+        <v>1.849701549698503</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.007944555415973891</v>
+        <v>1.56660741131229</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.841372802621388</v>
+        <v>6.216798027662553</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.56660741131229</v>
+        <v>1.062164914875564e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>6.216798027662553</v>
+        <v>570438203.2057494</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.062164914875564e-16</v>
+        <v>2.069364727926902e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>570438203.2057494</v>
+        <v>34.56281910427901</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.069364727926902e-07</v>
+        <v>0.0001806439685779298</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>34.56281910427901</v>
+        <v>11.64856747089039</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001806439685779298</v>
+        <v>1.300333352797068</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>11.64856747089039</v>
+        <v>0.02451142187460202</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.300333352797068</v>
+        <v>3.258481527020457</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.02451142187460202</v>
+        <v>0.9551291035654588</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.258481527020457</v>
+        <v>1.568316476420435</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9551291035654588</v>
+        <v>87</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.568316476420435</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>87</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.7380527246021891</v>
       </c>
     </row>
@@ -4594,72 +4492,66 @@
         <v>8.886093876681069e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.2290162206810276</v>
+        <v>2.585502531434802e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.439155413306771</v>
+        <v>1.009114690515178e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>2.585502531434802e-07</v>
+        <v>0.032687084541629</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.009114690515178e-06</v>
+        <v>0.08435534731780427</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.032687084541629</v>
+        <v>0.008184345229173547</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.08435534731780427</v>
+        <v>1.886985336040477</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.008184345229173547</v>
+        <v>1.770411471779167</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.906533632711688</v>
+        <v>4.539274355924512</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.770411471779167</v>
+        <v>6.23431006139499e-17</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.539274355924512</v>
+        <v>958613902.1861601</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>6.23431006139499e-17</v>
+        <v>1.239858080456559e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>958613902.1861601</v>
+        <v>57.28960712346696</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.239858080456559e-07</v>
+        <v>0.000190672039067339</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>57.28960712346696</v>
+        <v>12.20336518905875</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.000190672039067339</v>
+        <v>1.080673854003446</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>12.20336518905875</v>
+        <v>0.02839528465206391</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.080673854003446</v>
+        <v>2.863108726238708</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.02839528465206391</v>
+        <v>0.9569515211741898</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.863108726238708</v>
+        <v>1.283074754056689</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9569515211741898</v>
+        <v>87</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.283074754056689</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>87</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.7027591342710642</v>
       </c>
     </row>
@@ -5036,7 +4928,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.357260740874213</v>
+        <v>1.318441521334005</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.773541877280094</v>
@@ -5125,7 +5017,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.361354298057834</v>
+        <v>1.32388137113512</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.75497841772706</v>
@@ -5214,7 +5106,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.391650737872229</v>
+        <v>1.355240677663122</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.719816903389526</v>
@@ -5303,7 +5195,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.387407000005286</v>
+        <v>1.354278043813237</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.711105360275573</v>
@@ -5392,7 +5284,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.384557848141399</v>
+        <v>1.356280924193961</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.697356852807056</v>
@@ -5481,7 +5373,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.41757074983206</v>
+        <v>1.383362976322327</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.685887791766657</v>
@@ -5570,7 +5462,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.443633902847788</v>
+        <v>1.404839918919835</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.671897060597162</v>
@@ -5659,7 +5551,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.443256249533974</v>
+        <v>1.403374690098986</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.652911740767401</v>
@@ -5748,7 +5640,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.446240530663059</v>
+        <v>1.406503609217417</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.672053646991685</v>
@@ -5837,7 +5729,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.577633755188338</v>
+        <v>1.526339115752521</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.756295756791074</v>
@@ -5926,7 +5818,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.593514017190898</v>
+        <v>1.540706762278122</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.939813902702133</v>
@@ -6015,7 +5907,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.603452146459377</v>
+        <v>1.549130345135224</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.934442538613775</v>
@@ -6104,7 +5996,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.613194270584393</v>
+        <v>1.559543645623399</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.397545860781777</v>
@@ -6193,7 +6085,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.63214239468517</v>
+        <v>1.579934897669334</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.743751541676767</v>
@@ -6282,7 +6174,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.66657329616494</v>
+        <v>1.610646667113682</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.296623885222713</v>
@@ -6371,7 +6263,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.660553730192052</v>
+        <v>1.600669978180075</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.47447734728345</v>
@@ -6460,7 +6352,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.646690954844896</v>
+        <v>1.591112292069468</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.904349464247079</v>
@@ -6549,7 +6441,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.639875465363873</v>
+        <v>1.592870422690666</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.824031625216398</v>
@@ -6638,7 +6530,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.507794853970369</v>
+        <v>1.487590503946455</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.876228407812384</v>
@@ -6727,7 +6619,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.502444314064516</v>
+        <v>1.485852946942876</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.901080350080669</v>
@@ -6816,7 +6708,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.480817369336956</v>
+        <v>1.468097972400771</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.906174653618617</v>
@@ -6905,7 +6797,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.475806434338861</v>
+        <v>1.466119388228778</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.90905073294755</v>
@@ -6994,7 +6886,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.443604181813029</v>
+        <v>1.428018926032864</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.930595155758114</v>
@@ -7083,7 +6975,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.440908598279289</v>
+        <v>1.424212047535148</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.954802491066906</v>
@@ -7172,7 +7064,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.420771697527918</v>
+        <v>1.400629792955848</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.959022829444752</v>
@@ -7261,7 +7153,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.408379185283586</v>
+        <v>1.386814539239224</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.945850419424594</v>
@@ -7350,7 +7242,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.388707596168896</v>
+        <v>1.370652165798175</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.977589809269677</v>
@@ -7439,7 +7331,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.387218308865861</v>
+        <v>1.364427085512279</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.98092120417816</v>
@@ -7528,7 +7420,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.376264815453689</v>
+        <v>1.350698864157093</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.982010122067285</v>
@@ -7617,7 +7509,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.356090058651373</v>
+        <v>1.335866306629777</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.054447837767221</v>
@@ -7706,7 +7598,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.349250074530574</v>
+        <v>1.328825303936107</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.071988619882837</v>
@@ -7795,7 +7687,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.343578479454039</v>
+        <v>1.324467910380791</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.031914902740196</v>
@@ -7884,7 +7776,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.352816645147716</v>
+        <v>1.32303148607247</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.95682510520932</v>
@@ -7973,7 +7865,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.366706234018371</v>
+        <v>1.336224771397246</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.282366086481631</v>
@@ -8062,7 +7954,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.3708252886276</v>
+        <v>1.336435168593184</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.358796376858117</v>
@@ -8151,7 +8043,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.363701945500016</v>
+        <v>1.32980384111892</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.424777818978274</v>
@@ -8240,7 +8132,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.362039740275484</v>
+        <v>1.326331150169562</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.405567975744117</v>
@@ -8329,7 +8221,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.371855922647849</v>
+        <v>1.340948454076137</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.297188937860271</v>
@@ -8418,7 +8310,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.371360605811297</v>
+        <v>1.330415930716538</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.42379024954533</v>
@@ -8507,7 +8399,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.371831763059532</v>
+        <v>1.330422422948276</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.332183412258277</v>
@@ -8596,7 +8488,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.373477427000346</v>
+        <v>1.335007116628241</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.194213429063351</v>
@@ -8685,7 +8577,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.383807757118091</v>
+        <v>1.345730804686935</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.429209131160988</v>
@@ -8774,7 +8666,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.378563745272205</v>
+        <v>1.343303716485304</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.29961486512661</v>
@@ -8863,7 +8755,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.387376902093443</v>
+        <v>1.346577425903535</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.092696671875498</v>
@@ -8952,7 +8844,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.401391445838484</v>
+        <v>1.353318670573029</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.490151050235156</v>
@@ -9041,7 +8933,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.396849016567516</v>
+        <v>1.348362226509613</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.399925042900828</v>
@@ -9130,7 +9022,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.400131338436638</v>
+        <v>1.345601409001373</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.769252849742371</v>
@@ -9219,7 +9111,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.356179948980663</v>
+        <v>1.316374682848348</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.748912784824175</v>
@@ -9308,7 +9200,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.354610397894166</v>
+        <v>1.317215852752338</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.784679414593751</v>
@@ -9397,7 +9289,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.352406213027495</v>
+        <v>1.315634825248843</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.755833670499944</v>
@@ -9486,7 +9378,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.362766244823314</v>
+        <v>1.328990005641686</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.745293379712451</v>
@@ -9575,7 +9467,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.363516869896541</v>
+        <v>1.329972224478066</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.739048580143345</v>
@@ -9664,7 +9556,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.373216400018541</v>
+        <v>1.33721377968399</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.744147914422066</v>
@@ -9753,7 +9645,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.381259700116156</v>
+        <v>1.350775941138374</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.739760735877495</v>
@@ -9842,7 +9734,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.393473849481715</v>
+        <v>1.36719235769513</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.711208268327563</v>
@@ -9931,7 +9823,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.405547676771683</v>
+        <v>1.374390173612358</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.714181384691478</v>
@@ -10020,7 +9912,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.401029102522677</v>
+        <v>1.372398236066924</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.72462320018894</v>
@@ -10109,7 +10001,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.408969478081478</v>
+        <v>1.380922563211696</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.710621360278313</v>
@@ -10198,7 +10090,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.420555278800273</v>
+        <v>1.397146004303303</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.727168959899403</v>
@@ -10287,7 +10179,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.443499499740385</v>
+        <v>1.418505633021204</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.728412604399789</v>
@@ -10376,7 +10268,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.458547774454971</v>
+        <v>1.434296105436262</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.675040516502372</v>
@@ -10662,7 +10554,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.565216593507391</v>
+        <v>1.585904063361288</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.992932767307951</v>
@@ -10751,7 +10643,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.57929523202633</v>
+        <v>1.599838832281078</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.971227949188066</v>
@@ -10840,7 +10732,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.61450687836144</v>
+        <v>1.640093605593674</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.908172432941616</v>
@@ -10929,7 +10821,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.619575609227156</v>
+        <v>1.650791744847954</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.005733667255336</v>
@@ -11018,7 +10910,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.637710133441566</v>
+        <v>1.673799691628966</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.941098404592932</v>
@@ -11107,7 +10999,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.678187240349928</v>
+        <v>1.710040073627923</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.955916949690488</v>
@@ -11196,7 +11088,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.685678536120147</v>
+        <v>1.718705582899537</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.966316455247497</v>
@@ -11285,7 +11177,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.679713822637283</v>
+        <v>1.708993743865711</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.979589238267573</v>
@@ -11374,7 +11266,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.679016855015467</v>
+        <v>1.708301775285057</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.99045175508975</v>
@@ -11463,7 +11355,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.809917761314038</v>
+        <v>1.832889478947715</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.43476163350776</v>
@@ -11552,7 +11444,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.821821210103478</v>
+        <v>1.842196459572</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.146163440090094</v>
@@ -11641,7 +11533,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.847679688232896</v>
+        <v>1.86475796799773</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.117195373948909</v>
@@ -11730,7 +11622,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.848343451802562</v>
+        <v>1.868622333889849</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.486427426265589</v>
@@ -11819,7 +11711,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.891928127901844</v>
+        <v>1.910494928717338</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.878720995600269</v>
@@ -11908,7 +11800,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.911666134433571</v>
+        <v>1.927914664002469</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.287609037564927</v>
@@ -11997,7 +11889,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.892049249536064</v>
+        <v>1.909817193252722</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.813080309879637</v>
@@ -12086,7 +11978,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.868387772548499</v>
+        <v>1.885768458402583</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.780679579514381</v>
@@ -12175,7 +12067,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.859916109202404</v>
+        <v>1.876696011199679</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.697561922100915</v>
@@ -12264,7 +12156,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.778777340371172</v>
+        <v>1.804077627712299</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.547261703669664</v>
@@ -12353,7 +12245,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.777198233255056</v>
+        <v>1.800034861007537</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.659334371204601</v>
@@ -12442,7 +12334,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.759933564712052</v>
+        <v>1.784737258821393</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.605582465307197</v>
@@ -12531,7 +12423,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.753293159990168</v>
+        <v>1.779817587585449</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.527807856804171</v>
@@ -12620,7 +12512,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.641383491163042</v>
+        <v>1.681616509211135</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.207488655129903</v>
@@ -12709,7 +12601,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.592531646865329</v>
+        <v>1.637253732735284</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.214536722785853</v>
@@ -12798,7 +12690,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.5783423359209</v>
+        <v>1.620389650760254</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.234774672210332</v>
@@ -12887,7 +12779,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.568435910472878</v>
+        <v>1.609013802108763</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.241645929188834</v>
@@ -12976,7 +12868,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.551685902570915</v>
+        <v>1.592704753688814</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.296287310848023</v>
@@ -13065,7 +12957,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.549237079693752</v>
+        <v>1.59129476350588</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.273219368857014</v>
@@ -13154,7 +13046,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.533936651895707</v>
+        <v>1.571582501647724</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.25035755102336</v>
@@ -13243,7 +13135,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.513803382635058</v>
+        <v>1.543343258677028</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.250197549642516</v>
@@ -13332,7 +13224,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.504002004011027</v>
+        <v>1.533899579870772</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.285067355377686</v>
@@ -13421,7 +13313,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.511754667159707</v>
+        <v>1.542305813310992</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.324786088700439</v>
@@ -13510,7 +13402,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.513293857561416</v>
+        <v>1.54057642429489</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.222363761108312</v>
@@ -13599,7 +13491,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.519179645385579</v>
+        <v>1.548974955134446</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.301051783985537</v>
@@ -13688,7 +13580,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.514551926412993</v>
+        <v>1.543852614064745</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.243310346709239</v>
@@ -13777,7 +13669,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.510081847540952</v>
+        <v>1.53411854640658</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.216854547204061</v>
@@ -13866,7 +13758,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.509717196268786</v>
+        <v>1.529468370901599</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.188054226545612</v>
@@ -13955,7 +13847,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.579497012257141</v>
+        <v>1.591436241475957</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.437509353301532</v>
@@ -14044,7 +13936,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.602670705637532</v>
+        <v>1.60547982612387</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.793349418378042</v>
@@ -14133,7 +14025,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.586392148312209</v>
+        <v>1.587290012382225</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.935995110591029</v>
@@ -14222,7 +14114,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.583906478991627</v>
+        <v>1.587576071859831</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.616364631547327</v>
@@ -14311,7 +14203,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.588809498826414</v>
+        <v>1.589772635960572</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.851604567601309</v>
@@ -14400,7 +14292,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.582449185122249</v>
+        <v>1.582325237228288</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.901755307017535</v>
@@ -14489,7 +14381,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.588212822425994</v>
+        <v>1.588894419207334</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.516138841465405</v>
@@ -14578,7 +14470,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.615932342868481</v>
+        <v>1.622946181963798</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.940580014926881</v>
@@ -14667,7 +14559,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.634342050532854</v>
+        <v>1.638887344359595</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.175044524454316</v>
@@ -14756,7 +14648,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.633170488542145</v>
+        <v>1.631853048723205</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.026848937168823</v>
@@ -14845,7 +14737,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.580440538949178</v>
+        <v>1.589186819847538</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.001530884995608</v>
@@ -14934,7 +14826,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.588522008070145</v>
+        <v>1.599391820100468</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.050790766434597</v>
@@ -15023,7 +14915,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.583966019573881</v>
+        <v>1.593345872768472</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.026740180130605</v>
@@ -15112,7 +15004,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.55542599934871</v>
+        <v>1.576125097239587</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.044581610787116</v>
@@ -15201,7 +15093,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.559585276280919</v>
+        <v>1.578791672130627</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.021327216594849</v>
@@ -15290,7 +15182,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.559114966159291</v>
+        <v>1.57733433254917</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.048249606899773</v>
@@ -15379,7 +15271,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.567329823957748</v>
+        <v>1.590797835265763</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.065071730284608</v>
@@ -15468,7 +15360,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.591043995036212</v>
+        <v>1.618388877570263</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.997322577621557</v>
@@ -15557,7 +15449,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.603131320522802</v>
+        <v>1.629376616734021</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.03101282676415</v>
@@ -15646,7 +15538,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.60138583437324</v>
+        <v>1.631290843147929</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.045218791297805</v>
@@ -15735,7 +15627,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.625226342126258</v>
+        <v>1.657979951256862</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.049331774083591</v>
@@ -15824,7 +15716,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.635344990001835</v>
+        <v>1.669983763441845</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.10986307167128</v>
@@ -15913,7 +15805,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.649773931961005</v>
+        <v>1.688113739912479</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.06769460642878</v>
@@ -16002,7 +15894,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.660716296478044</v>
+        <v>1.700797195145809</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.086191538788626</v>
@@ -16288,7 +16180,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.631758130411465</v>
+        <v>1.635234515137357</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.156035939172654</v>
@@ -16377,7 +16269,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.649330041937348</v>
+        <v>1.658198609378682</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.141001150006031</v>
@@ -16466,7 +16358,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.680564897589271</v>
+        <v>1.689079820229515</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.068673577081921</v>
@@ -16555,7 +16447,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.681394664033965</v>
+        <v>1.692065526899536</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.144402799641627</v>
@@ -16644,7 +16536,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.695778952365591</v>
+        <v>1.710007210560955</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.073775872983611</v>
@@ -16733,7 +16625,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.72976805379326</v>
+        <v>1.744339771935225</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.105787297062707</v>
@@ -16822,7 +16714,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.732677716985473</v>
+        <v>1.746867334919066</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.130836802605882</v>
@@ -16911,7 +16803,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.732218556600153</v>
+        <v>1.742027053034514</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.134810392709179</v>
@@ -17000,7 +16892,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.734389808521033</v>
+        <v>1.742869044337324</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.167246415841911</v>
@@ -17089,7 +16981,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.847385701361377</v>
+        <v>1.842897620992285</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.629815109522709</v>
@@ -17178,7 +17070,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.854425261110181</v>
+        <v>1.847802489499883</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.006723828353683</v>
@@ -17267,7 +17159,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.864122746230355</v>
+        <v>1.852970687563309</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.716397714413849</v>
@@ -17356,7 +17248,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.869400258754443</v>
+        <v>1.854782736234693</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.775721756793331</v>
@@ -17445,7 +17337,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.893245286333996</v>
+        <v>1.875707025637951</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.631947718118696</v>
@@ -17534,7 +17426,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.899439762892914</v>
+        <v>1.880399099012602</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.001749549101641</v>
@@ -17623,7 +17515,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.887086119986362</v>
+        <v>1.87095286349766</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.469858006987927</v>
@@ -17712,7 +17604,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.871895577276349</v>
+        <v>1.853652603317005</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.127898481542168</v>
@@ -17801,7 +17693,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.846245479815555</v>
+        <v>1.831552836662781</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.500217124925403</v>
@@ -17890,7 +17782,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.763159430713286</v>
+        <v>1.758883785996359</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.405977936263064</v>
@@ -17979,7 +17871,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.755601982914562</v>
+        <v>1.753808353075006</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.423700574402787</v>
@@ -18068,7 +17960,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.746181519235812</v>
+        <v>1.746171516469394</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.418135765248844</v>
@@ -18157,7 +18049,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.751988213026732</v>
+        <v>1.756544889014059</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.380929608358219</v>
@@ -18246,7 +18138,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.693892309188491</v>
+        <v>1.704174622858884</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.456968893380862</v>
@@ -18335,7 +18227,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.662031728556072</v>
+        <v>1.676305824817759</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.421015351564205</v>
@@ -18424,7 +18316,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.637837558239329</v>
+        <v>1.658421718210061</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.447304122066108</v>
@@ -18513,7 +18405,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.628898144463542</v>
+        <v>1.653234196649728</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.504686521526014</v>
@@ -18602,7 +18494,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.615493344428931</v>
+        <v>1.644435892345313</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.475284800698931</v>
@@ -18691,7 +18583,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.6209089538728</v>
+        <v>1.651984716117793</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.484875004101398</v>
@@ -18780,7 +18672,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.605789766577681</v>
+        <v>1.633041381370468</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.524696138475731</v>
@@ -18869,7 +18761,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.585462409698879</v>
+        <v>1.605657531551818</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.498493845354305</v>
@@ -18958,7 +18850,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.577081570361681</v>
+        <v>1.596533714083163</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.445947174155996</v>
@@ -19047,7 +18939,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.587637567693132</v>
+        <v>1.611533075342283</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.472549894019766</v>
@@ -19136,7 +19028,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.606822687829061</v>
+        <v>1.630178757267795</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.169002585836644</v>
@@ -19225,7 +19117,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.625703044802165</v>
+        <v>1.652692511851067</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.562822007282965</v>
@@ -19314,7 +19206,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.625953516076635</v>
+        <v>1.653731059540148</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.622298974666413</v>
@@ -19403,7 +19295,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.614609951140052</v>
+        <v>1.639137210723634</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.656826773216006</v>
@@ -19492,7 +19384,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.603340088374717</v>
+        <v>1.621628883364844</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.605477063438717</v>
@@ -19581,7 +19473,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.644249478796443</v>
+        <v>1.657110926349254</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.478005763517857</v>
@@ -19670,7 +19562,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.664890676633565</v>
+        <v>1.674506791989798</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.544151848191448</v>
@@ -19759,7 +19651,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.667626086600656</v>
+        <v>1.672223966718426</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.024134248184192</v>
@@ -19848,7 +19740,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.663037388859428</v>
+        <v>1.668118420763539</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.99281941589626</v>
@@ -19937,7 +19829,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.669652844117139</v>
+        <v>1.667925583399495</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.12680597045246</v>
@@ -20026,7 +19918,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.663915365290015</v>
+        <v>1.654959187157287</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.00720191535005</v>
@@ -20115,7 +20007,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.667808350047557</v>
+        <v>1.660053403644338</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.547617586579685</v>
@@ -20204,7 +20096,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.699891960765106</v>
+        <v>1.697605405449419</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.130754958480269</v>
@@ -20293,7 +20185,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.710884528583138</v>
+        <v>1.71263469684781</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.545131688910361</v>
@@ -20382,7 +20274,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.702532563590846</v>
+        <v>1.692225111929921</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.137747106769677</v>
@@ -20471,7 +20363,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.646111307022218</v>
+        <v>1.642547527169103</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.14204391422099</v>
@@ -20560,7 +20452,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.65123630670076</v>
+        <v>1.647518346991641</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.194275896390926</v>
@@ -20649,7 +20541,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.647176385897555</v>
+        <v>1.642483939388338</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.150487365655243</v>
@@ -20738,7 +20630,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.641800915775562</v>
+        <v>1.638831104839269</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.204466079008771</v>
@@ -20827,7 +20719,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.648322498850634</v>
+        <v>1.644405799843513</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.129943871193277</v>
@@ -20916,7 +20808,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.647890017178367</v>
+        <v>1.64425084972185</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.120046815658132</v>
@@ -21005,7 +20897,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.653208582414149</v>
+        <v>1.651414822506038</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.139293343182604</v>
@@ -21094,7 +20986,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.670268805478605</v>
+        <v>1.669201139296973</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.047471905956964</v>
@@ -21183,7 +21075,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.676064239553361</v>
+        <v>1.673724675463327</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.115390875673427</v>
@@ -21272,7 +21164,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.674598272252812</v>
+        <v>1.677045561148163</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.092720738690299</v>
@@ -21361,7 +21253,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.694185308249708</v>
+        <v>1.703354454001648</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.145694652814925</v>
@@ -21450,7 +21342,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.712099279401155</v>
+        <v>1.721818059798682</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.145181168684839</v>
@@ -21539,7 +21431,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.724046229774127</v>
+        <v>1.736724807566234</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.138065373213793</v>
@@ -21628,7 +21520,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.727916586399709</v>
+        <v>1.738259992286015</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.089688792599766</v>
@@ -21914,7 +21806,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.575729041645558</v>
+        <v>1.546725308124146</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.285198643253806</v>
@@ -22003,7 +21895,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.592411441640561</v>
+        <v>1.559005773551926</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.225184252904536</v>
@@ -22092,7 +21984,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.614789804222263</v>
+        <v>1.582326497156845</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.137380420501227</v>
@@ -22181,7 +22073,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.622421313178468</v>
+        <v>1.595416418036169</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.28721811723345</v>
@@ -22270,7 +22162,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.631079503525338</v>
+        <v>1.604411975566707</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.17162388172668</v>
@@ -22359,7 +22251,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.656719843019826</v>
+        <v>1.627243979521264</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.219238107191149</v>
@@ -22448,7 +22340,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.660847296339402</v>
+        <v>1.634574552013969</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.267368119051953</v>
@@ -22537,7 +22429,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.664514708051299</v>
+        <v>1.637727271896397</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.216305662712325</v>
@@ -22626,7 +22518,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.670110994179003</v>
+        <v>1.640975871422261</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.171609329811314</v>
@@ -22715,7 +22607,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.739233383931434</v>
+        <v>1.701939529284249</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.633441952120702</v>
@@ -22804,7 +22696,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.742026389221041</v>
+        <v>1.704264616038089</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.551851986315172</v>
@@ -22893,7 +22785,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.742438615253475</v>
+        <v>1.704955696299942</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.532611067883463</v>
@@ -22982,7 +22874,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.740919519605202</v>
+        <v>1.705128542216379</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.868319135246421</v>
@@ -23071,7 +22963,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.75835517435401</v>
+        <v>1.718844723929241</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.514531664542917</v>
@@ -23160,7 +23052,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.749649969426733</v>
+        <v>1.710832493655306</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.489108716989184</v>
@@ -23249,7 +23141,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.742073281660601</v>
+        <v>1.706337418834567</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.764011420936462</v>
@@ -23338,7 +23230,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.735918286783862</v>
+        <v>1.703556575240226</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.58474275318696</v>
@@ -23427,7 +23319,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.733325581695656</v>
+        <v>1.704246911010565</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.952110114920828</v>
@@ -23516,7 +23408,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.648034735528424</v>
+        <v>1.627514939274928</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.96133609850217</v>
@@ -23605,7 +23497,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.655217579985112</v>
+        <v>1.637856877619071</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.013389156760649</v>
@@ -23694,7 +23586,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.651342047030476</v>
+        <v>1.635773607081937</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.033422133335167</v>
@@ -23783,7 +23675,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.657032102852415</v>
+        <v>1.647700838227222</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.01154862577474</v>
@@ -23872,7 +23764,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.634947354042006</v>
+        <v>1.614309255157047</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.058545008786834</v>
@@ -23961,7 +23853,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.616272223877388</v>
+        <v>1.597751151340148</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.093053870060754</v>
@@ -24050,7 +23942,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.601710990563612</v>
+        <v>1.589457615421449</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.067578515143201</v>
@@ -24139,7 +24031,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.5966318987777</v>
+        <v>1.587693021111831</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.065280991712759</v>
@@ -24228,7 +24120,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.584555898267032</v>
+        <v>1.578188907971112</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.104626821651643</v>
@@ -24317,7 +24209,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.583230575667764</v>
+        <v>1.579021998994644</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.098153576518514</v>
@@ -24406,7 +24298,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.574892391652829</v>
+        <v>1.568230629089912</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.129502561561685</v>
@@ -24495,7 +24387,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.559332237246115</v>
+        <v>1.552305712904688</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.135820660446771</v>
@@ -24584,7 +24476,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.557841690280227</v>
+        <v>1.547686583761817</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.155185501603041</v>
@@ -24673,7 +24565,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.552466506069413</v>
+        <v>1.544160950343318</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.16412146945019</v>
@@ -24762,7 +24654,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.567937982249749</v>
+        <v>1.552871804267421</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.875873702950134</v>
@@ -24851,7 +24743,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.566168740028077</v>
+        <v>1.55484241764688</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.934138825443931</v>
@@ -24940,7 +24832,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.552676812915083</v>
+        <v>1.540964146428026</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.999468463275962</v>
@@ -25029,7 +24921,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.536829995297715</v>
+        <v>1.519166302242692</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.985285011463191</v>
@@ -25118,7 +25010,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.522711956770558</v>
+        <v>1.500100252713804</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.997172591619344</v>
@@ -25207,7 +25099,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.532609139886946</v>
+        <v>1.519211911912521</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.535567773403584</v>
@@ -25296,7 +25188,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.533227743897888</v>
+        <v>1.517850451318804</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.533154860736479</v>
@@ -25385,7 +25277,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.518199645945769</v>
+        <v>1.50028800428199</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.806827552149957</v>
@@ -25474,7 +25366,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.506272561201199</v>
+        <v>1.489420229268441</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.616150315982072</v>
@@ -25563,7 +25455,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.509768526490028</v>
+        <v>1.492193442844951</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.897099374416815</v>
@@ -25652,7 +25544,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.509207378341776</v>
+        <v>1.487454468045676</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.925476578876768</v>
@@ -25741,7 +25633,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.510064635359289</v>
+        <v>1.490571469596655</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.480857846774653</v>
@@ -25830,7 +25722,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.521116167491212</v>
+        <v>1.503990564521205</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.750157117062454</v>
@@ -25919,7 +25811,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.509824976313449</v>
+        <v>1.494493451357052</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.954514698325058</v>
@@ -26008,7 +25900,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.526197161347057</v>
+        <v>1.507713819979713</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.986410512027645</v>
@@ -26097,7 +25989,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.504663826622832</v>
+        <v>1.494361553740874</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.979442546929058</v>
@@ -26186,7 +26078,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.509921179182406</v>
+        <v>1.499284832290211</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.026935258684698</v>
@@ -26275,7 +26167,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.507231651837259</v>
+        <v>1.499850409885518</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.988800877807976</v>
@@ -26364,7 +26256,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.507070834679839</v>
+        <v>1.505430082754129</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.032623910117608</v>
@@ -26453,7 +26345,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.51110686358035</v>
+        <v>1.507812929239966</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.95464779830721</v>
@@ -26542,7 +26434,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.520809136824953</v>
+        <v>1.512749033143427</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.948341325207834</v>
@@ -26631,7 +26523,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.537582450832566</v>
+        <v>1.53065532694977</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.974897048484521</v>
@@ -26720,7 +26612,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.564276541978811</v>
+        <v>1.555773241105102</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.905739103519049</v>
@@ -26809,7 +26701,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.581144656862637</v>
+        <v>1.566458176958477</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.933844954348391</v>
@@ -26898,7 +26790,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.593297972127185</v>
+        <v>1.572886794284115</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.949032726261821</v>
@@ -26987,7 +26879,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.600100800289108</v>
+        <v>1.581411442406493</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.95247275646826</v>
@@ -27076,7 +26968,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.619780289634394</v>
+        <v>1.602059717980062</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.961739665720792</v>
@@ -27165,7 +27057,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.637182490465244</v>
+        <v>1.620955506804962</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.929358738923249</v>
@@ -27254,7 +27146,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.670476532276434</v>
+        <v>1.653026227414196</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.904963311621338</v>
@@ -27540,7 +27432,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.333772160795798</v>
+        <v>1.286975702659554</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.741952409709504</v>
@@ -27629,7 +27521,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.336322744459085</v>
+        <v>1.286276533653595</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.704201321720014</v>
@@ -27718,7 +27610,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.365502641663491</v>
+        <v>1.316752135560453</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.648049752898322</v>
@@ -27807,7 +27699,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.364641444059144</v>
+        <v>1.319912930250787</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.659187229306234</v>
@@ -27896,7 +27788,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.357439179791746</v>
+        <v>1.319377042041306</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.643512482487591</v>
@@ -27985,7 +27877,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.379286439283341</v>
+        <v>1.338548582749306</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.619033598797482</v>
@@ -28074,7 +27966,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.376927411933283</v>
+        <v>1.338072911541677</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.612970673351553</v>
@@ -28163,7 +28055,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.379003027347822</v>
+        <v>1.340090874998321</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.611764917569831</v>
@@ -28252,7 +28144,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.382796088974251</v>
+        <v>1.342947152906405</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.607636586949916</v>
@@ -28341,7 +28233,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.55801781247931</v>
+        <v>1.513359645470702</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.105802857798867</v>
@@ -28430,7 +28322,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.564790147324797</v>
+        <v>1.51081817302899</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.291274675859538</v>
@@ -28519,7 +28411,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.575902560316519</v>
+        <v>1.521148107009944</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.635705175351437</v>
@@ -28608,7 +28500,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.579967229306586</v>
+        <v>1.533402589035491</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.268222294843698</v>
@@ -28697,7 +28589,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.627305011884022</v>
+        <v>1.589900414954091</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.600905846682292</v>
@@ -28786,7 +28678,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.644548678446351</v>
+        <v>1.606415043288313</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.519493326395544</v>
@@ -28875,7 +28767,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.637670664387514</v>
+        <v>1.600121313267215</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.426512259356373</v>
@@ -28964,7 +28856,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.620583114894419</v>
+        <v>1.590066387556712</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.856138569940638</v>
@@ -29053,7 +28945,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.507551611066828</v>
+        <v>1.493194523213192</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.473593928939924</v>
@@ -29142,7 +29034,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.286216572061395</v>
+        <v>1.285968787215984</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.552364743786093</v>
@@ -29231,7 +29123,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.278238113445175</v>
+        <v>1.282116532859494</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.570142828576064</v>
@@ -29320,7 +29212,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.259591701495748</v>
+        <v>1.263790207382957</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.583517057698831</v>
@@ -29409,7 +29301,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.2533298918696</v>
+        <v>1.255996304770043</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.581197212857947</v>
@@ -29498,7 +29390,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.219802098198754</v>
+        <v>1.207744732433276</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.656320037434103</v>
@@ -29587,7 +29479,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.210653457352373</v>
+        <v>1.195440177201068</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.709118104907829</v>
@@ -29676,7 +29568,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.214937859392845</v>
+        <v>1.18956866482483</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.771760414914887</v>
@@ -29765,7 +29657,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.19874029528589</v>
+        <v>1.173048075758025</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.801651609242616</v>
@@ -29854,7 +29746,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.189470135985537</v>
+        <v>1.165091362066955</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.822686849738206</v>
@@ -29943,7 +29835,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.190865141856371</v>
+        <v>1.164782210383468</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.825648611235374</v>
@@ -30032,7 +29924,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.191677923568859</v>
+        <v>1.164741545707541</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.843825559179143</v>
@@ -30121,7 +30013,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.200112632339146</v>
+        <v>1.171490865648722</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.881498654050431</v>
@@ -30210,7 +30102,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.202391528604963</v>
+        <v>1.172506452535482</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.893291627499977</v>
@@ -30299,7 +30191,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.204067343077419</v>
+        <v>1.174822084557894</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.92258975080241</v>
@@ -30388,7 +30280,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.221692530571293</v>
+        <v>1.181607905327638</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.7391475525193</v>
@@ -30477,7 +30369,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.24222264105695</v>
+        <v>1.20217637117584</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.955878997840105</v>
@@ -30566,7 +30458,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.247582629852717</v>
+        <v>1.207209129663007</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.93490013157933</v>
@@ -30655,7 +30547,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.249261643358825</v>
+        <v>1.207736872086782</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.963515350521183</v>
@@ -30744,7 +30636,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.250998753435598</v>
+        <v>1.207909588852542</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.883026847396708</v>
@@ -30833,7 +30725,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.275173926819031</v>
+        <v>1.230733577296249</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.915182985046518</v>
@@ -30922,7 +30814,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.289612648783499</v>
+        <v>1.241858724190534</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.962403643225065</v>
@@ -31011,7 +30903,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.306578360305425</v>
+        <v>1.264231984472707</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.239451783204689</v>
@@ -31100,7 +30992,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.326992860316457</v>
+        <v>1.282190130304822</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.008250823546388</v>
@@ -31189,7 +31081,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.343104761803099</v>
+        <v>1.29699484637742</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.416540361970773</v>
@@ -31278,7 +31170,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.342202830236193</v>
+        <v>1.29692042012724</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.318684510096858</v>
@@ -31367,7 +31259,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.342788835968741</v>
+        <v>1.296096319172292</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.07476955786359</v>
@@ -31456,7 +31348,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.337239871070145</v>
+        <v>1.295522373574034</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.43452712667945</v>
@@ -31545,7 +31437,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.340854509137355</v>
+        <v>1.29746963602818</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.529697975427113</v>
@@ -31634,7 +31526,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.352920694633862</v>
+        <v>1.293186253651067</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.521165290406477</v>
@@ -31723,7 +31615,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.268761982719625</v>
+        <v>1.233410901409786</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.53407512989404</v>
@@ -31812,7 +31704,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.263333361048045</v>
+        <v>1.229896274299965</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.533267469273766</v>
@@ -31901,7 +31793,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.25913058082789</v>
+        <v>1.227376252458271</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.513906575044344</v>
@@ -31990,7 +31882,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.264100971409528</v>
+        <v>1.235246010942016</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.510819005858826</v>
@@ -32079,7 +31971,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.267042978145378</v>
+        <v>1.237205607467941</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.494488126758981</v>
@@ -32168,7 +32060,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.269921114918833</v>
+        <v>1.241760628619609</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.488583553835213</v>
@@ -32257,7 +32149,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.276930929503392</v>
+        <v>1.252777614958368</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.484034355594422</v>
@@ -32346,7 +32238,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.281271834458877</v>
+        <v>1.262147356738422</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.447833903150773</v>
@@ -32435,7 +32327,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.292862456660896</v>
+        <v>1.270926638039831</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.449447557356642</v>
@@ -32524,7 +32416,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.292110091841387</v>
+        <v>1.272218878403838</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.440090528306798</v>
@@ -32613,7 +32505,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.292256147282205</v>
+        <v>1.274741469064015</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.426010726862503</v>
@@ -32702,7 +32594,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.299116369702413</v>
+        <v>1.28545098036073</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.423465481614395</v>
@@ -32791,7 +32683,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.310033955204406</v>
+        <v>1.297618438485146</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.411319934362633</v>
@@ -32880,7 +32772,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.314508846406263</v>
+        <v>1.305860041097156</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.396524814656412</v>
@@ -33166,7 +33058,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.547439262010625</v>
+        <v>1.565513233184889</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.066945048150398</v>
@@ -33255,7 +33147,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.57264167457274</v>
+        <v>1.590933545006087</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.081960924224237</v>
@@ -33344,7 +33236,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.600288635472509</v>
+        <v>1.623768982575888</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.935451121225414</v>
@@ -33433,7 +33325,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.599233296176192</v>
+        <v>1.624742352218528</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.084560394764564</v>
@@ -33522,7 +33414,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.61897087995533</v>
+        <v>1.650659529082664</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.995939765052162</v>
@@ -33611,7 +33503,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.651732226868859</v>
+        <v>1.684068001225203</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.016687959660069</v>
@@ -33700,7 +33592,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.665346723735654</v>
+        <v>1.703904721753947</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.055379591102982</v>
@@ -33789,7 +33681,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.654409521018932</v>
+        <v>1.691570759172498</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.060356840843655</v>
@@ -33878,7 +33770,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.652768009454076</v>
+        <v>1.687091732749401</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.089134834619489</v>
@@ -33967,7 +33859,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.750326560824952</v>
+        <v>1.786376380605401</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.354637404463609</v>
@@ -34056,7 +33948,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.763994499926722</v>
+        <v>1.797075607459008</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.150743851958383</v>
@@ -34145,7 +34037,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.778610277358835</v>
+        <v>1.806685366719669</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.290884393234788</v>
@@ -34234,7 +34126,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.77305457288145</v>
+        <v>1.801387131373982</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.103742749328555</v>
@@ -34323,7 +34215,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.81779542266762</v>
+        <v>1.84055500423676</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.288795128232012</v>
@@ -34412,7 +34304,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.844267491309611</v>
+        <v>1.86310970377095</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.097072561713332</v>
@@ -34501,7 +34393,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.8185798559011</v>
+        <v>1.841683023399466</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.268126233911653</v>
@@ -34590,7 +34482,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.79323127743955</v>
+        <v>1.820229508223761</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.968661982293403</v>
@@ -34679,7 +34571,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.7707164358507</v>
+        <v>1.799257857413499</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.312799277336286</v>
@@ -34768,7 +34660,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.675094090948964</v>
+        <v>1.71238293686744</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.354831368811823</v>
@@ -34857,7 +34749,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.651623863098308</v>
+        <v>1.687727625980785</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.338167381114081</v>
@@ -34946,7 +34838,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.635605134089135</v>
+        <v>1.672222605017826</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.332200804272676</v>
@@ -35035,7 +34927,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.605024360932015</v>
+        <v>1.643180471154817</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.340598431151134</v>
@@ -35124,7 +35016,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.475809671490443</v>
+        <v>1.516504627589247</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.036881474036586</v>
@@ -35213,7 +35105,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.446679346368535</v>
+        <v>1.487189246928078</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.045530926391268</v>
@@ -35302,7 +35194,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.438097271466112</v>
+        <v>1.481020735121833</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.048070679614585</v>
@@ -35391,7 +35283,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.424849070384184</v>
+        <v>1.464851906280437</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.054340929387878</v>
@@ -35480,7 +35372,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.413792881304812</v>
+        <v>1.457303330600653</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.075457910909715</v>
@@ -35569,7 +35461,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.414513596504117</v>
+        <v>1.459067070700775</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.058085283372069</v>
@@ -35658,7 +35550,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.39894263434222</v>
+        <v>1.440621711492096</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.078458205741945</v>
@@ -35747,7 +35639,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.387716706161087</v>
+        <v>1.419222002174332</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.054400153524087</v>
@@ -35836,7 +35728,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.389091645802196</v>
+        <v>1.420719775408737</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.102925588877447</v>
@@ -35925,7 +35817,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.400751201842326</v>
+        <v>1.43304995568827</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.120099848948148</v>
@@ -36014,7 +35906,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.412965368937</v>
+        <v>1.446511214358257</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.931153772976057</v>
@@ -36103,7 +35995,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.432243023272612</v>
+        <v>1.464179975582846</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.071195289982277</v>
@@ -36192,7 +36084,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.44327513182766</v>
+        <v>1.47822509929657</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.078671411414614</v>
@@ -36281,7 +36173,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.43949465099339</v>
+        <v>1.468560412817508</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.094160854849789</v>
@@ -36370,7 +36262,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.457189243524499</v>
+        <v>1.48369350058461</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.962314732129528</v>
@@ -36459,7 +36351,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.559073816968398</v>
+        <v>1.578574957595073</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.377294394897077</v>
@@ -36548,7 +36440,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.579292258449705</v>
+        <v>1.59359342905117</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.535614763795735</v>
@@ -36637,7 +36529,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.569667579505227</v>
+        <v>1.581203505036714</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.839989000047136</v>
@@ -36726,7 +36618,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.578425870608486</v>
+        <v>1.595983714325487</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.674426364761782</v>
@@ -36815,7 +36707,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.595719485310289</v>
+        <v>1.609054358274191</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.978814421937731</v>
@@ -36904,7 +36796,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.592729450984057</v>
+        <v>1.603982431069514</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.970724249004869</v>
@@ -36993,7 +36885,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.610249638569031</v>
+        <v>1.619606807810303</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.580438614720693</v>
@@ -37082,7 +36974,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.645528362945568</v>
+        <v>1.662684385787079</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.236051407741917</v>
@@ -37171,7 +37063,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.57241190535016</v>
+        <v>1.595842402165451</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.964514394924455</v>
@@ -37260,7 +37152,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.5742339054444</v>
+        <v>1.588611201773888</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.996056550935204</v>
@@ -37349,7 +37241,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.535219455888135</v>
+        <v>1.553200198965041</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.973722648515375</v>
@@ -37438,7 +37330,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.532276345187658</v>
+        <v>1.55263260623444</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.999527164212475</v>
@@ -37527,7 +37419,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.523690639576062</v>
+        <v>1.541408730523205</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.966449051617656</v>
@@ -37616,7 +37508,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.471171285782475</v>
+        <v>1.495965056098146</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.002664116023154</v>
@@ -37705,7 +37597,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.461241604059641</v>
+        <v>1.485763304062998</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.978309168773469</v>
@@ -37794,7 +37686,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.462083373698189</v>
+        <v>1.486958050548072</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.963847952997568</v>
@@ -37883,7 +37775,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.451597342163291</v>
+        <v>1.479370839340283</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.979267777892899</v>
@@ -37972,7 +37864,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.467265706893376</v>
+        <v>1.498048580757486</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.947203794105228</v>
@@ -38061,7 +37953,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.466108858099167</v>
+        <v>1.494120341211632</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.921358030864958</v>
@@ -38150,7 +38042,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.456367789088789</v>
+        <v>1.486189174705812</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.940214391595198</v>
@@ -38239,7 +38131,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.462363099647037</v>
+        <v>1.494783206700423</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.952935722427671</v>
@@ -38328,7 +38220,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.46790976630342</v>
+        <v>1.504494088108553</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.965926221930481</v>
@@ -38417,7 +38309,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.480785186686114</v>
+        <v>1.516072489284677</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.967532653199751</v>
@@ -38506,7 +38398,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.542945226201375</v>
+        <v>1.581399979801681</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.076956151691968</v>
